--- a/biology/Botanique/Hôpital_San_Salvadour/Hôpital_San_Salvadour.xlsx
+++ b/biology/Botanique/Hôpital_San_Salvadour/Hôpital_San_Salvadour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Salvadour</t>
+          <t>Hôpital_San_Salvadour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital San Salvadour est un hôpital de l'Assistance publique - hôpitaux de Paris (AP-HP) situé à Hyères (Var).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Salvadour</t>
+          <t>Hôpital_San_Salvadour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le domaine de San Salvadour est construit à partir de 1872 par Auguste Parent (ce château fastueux était destiné à l'origine à accueillir un prince de la famille Napoléon). Il devient en 1879 la propriété du journaliste et maire d'Hyères Edmond Magnier avant d'être racheté par une religieuse, Sœur Candide, puis par la Ville de Paris[1], qui l'a cédé à l’Assistance Publique pour accueillir des enfants présentant des problèmes pulmonaires, convalescents de maladies infantiles et souffrant de rachitisme[2]. L'activité thermale y fut aussi développée[3].
-Outre les bâtiments accueillant l'établissement hospitalier, le domaine de San Salvadour est aussi constitué d'un parc botanique réservé aux personnes qui fréquentent l'hôpital[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine de San Salvadour est construit à partir de 1872 par Auguste Parent (ce château fastueux était destiné à l'origine à accueillir un prince de la famille Napoléon). Il devient en 1879 la propriété du journaliste et maire d'Hyères Edmond Magnier avant d'être racheté par une religieuse, Sœur Candide, puis par la Ville de Paris, qui l'a cédé à l’Assistance Publique pour accueillir des enfants présentant des problèmes pulmonaires, convalescents de maladies infantiles et souffrant de rachitisme. L'activité thermale y fut aussi développée.
+Outre les bâtiments accueillant l'établissement hospitalier, le domaine de San Salvadour est aussi constitué d'un parc botanique réservé aux personnes qui fréquentent l'hôpital.
 Aujourd'hui l’hôpital San Salvadour est spécialisé dans la prise en charge sanitaire de l’enfant, de l’adolescent et de l’adulte polyhandicapé.
 </t>
         </is>
